--- a/public/technology-map/10002_policies_technology-catalog_visitbrowsing_table_01_20240628.xlsx
+++ b/public/technology-map/10002_policies_technology-catalog_visitbrowsing_table_01_20240628.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://digitalgojp.sharepoint.com/sites/DA-so-dar/DocLib-review-folder/★★新general★★/12_予算要求・執行業務/◆ポータルサイト構築/★α版マスタデータ/★ウェブサイトマスタデータ/20240628/掲載用Excelファイル/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1389" documentId="13_ncr:1_{758074C1-D8CC-4117-9685-41DC163EAD8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C28DC27A-4086-4F00-BAB3-A780CF81E01C}"/>
+  <xr:revisionPtr revIDLastSave="1390" documentId="13_ncr:1_{758074C1-D8CC-4117-9685-41DC163EAD8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A8623CE5-524D-4F90-BEC4-3D0FF91D0DD8}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BADB793F-F467-4E7F-9F50-CF546980F4AD}"/>
   </bookViews>
@@ -1155,9 +1155,6 @@
     <phoneticPr fontId="9"/>
   </si>
   <si>
-    <t>「Speed Letter Plus」は、これまで紙で送付していた秘匿性の高い通知物を、デジタルで送付するサービスです。マイナンバーカード等による本人確認を行ったIDに対して、デジタルデータ化した通知物を電子送付いたします。</t>
-  </si>
-  <si>
     <t>https://solution.toppan.co.jp/newnormal/service/speedletterplus.html</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -1318,6 +1315,10 @@
       <t>コウシンビ</t>
     </rPh>
     <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>「Speed Letter Plus」は、これまで紙で送付していた秘匿性の高い通知物を、デジタルで送付するサービスです。マイナンバーカード等による本人確認を行ったIDに対して、デジタルデータ化した通知物を電子送付いたします。</t>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
@@ -2183,10 +2184,10 @@
   </sheetPr>
   <dimension ref="B1:I69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="G79" sqref="G79"/>
+      <selection pane="bottomLeft" activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2208,7 +2209,7 @@
         <v>0</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I1" s="34"/>
     </row>
@@ -2283,13 +2284,13 @@
         <v>14</v>
       </c>
       <c r="I4" s="32" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B5" s="12"/>
       <c r="C5" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>16</v>
@@ -2364,19 +2365,19 @@
         <v>23</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I8" s="32" t="s">
         <v>202</v>
@@ -2427,7 +2428,7 @@
         <v>30</v>
       </c>
       <c r="I10" s="39" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="11" spans="2:9" ht="56.25" x14ac:dyDescent="0.4">
@@ -2451,7 +2452,7 @@
         <v>33</v>
       </c>
       <c r="I11" s="32" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.4">
@@ -2475,7 +2476,7 @@
         <v>36</v>
       </c>
       <c r="I12" s="32" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="13" spans="2:9" ht="75" x14ac:dyDescent="0.4">
@@ -2525,7 +2526,7 @@
         <v>47</v>
       </c>
       <c r="I14" s="32" t="s">
-        <v>205</v>
+        <v>239</v>
       </c>
     </row>
     <row r="15" spans="2:9" ht="56.25" x14ac:dyDescent="0.4">
@@ -2549,7 +2550,7 @@
         <v>53</v>
       </c>
       <c r="I15" s="39" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="16" spans="2:9" ht="36" x14ac:dyDescent="0.4">
@@ -2597,7 +2598,7 @@
         <v>41</v>
       </c>
       <c r="I17" s="32" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="18" spans="2:9" ht="36" x14ac:dyDescent="0.4">
@@ -2623,7 +2624,7 @@
         <v>58</v>
       </c>
       <c r="I18" s="32" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="19" spans="2:9" ht="36" x14ac:dyDescent="0.4">
@@ -2647,7 +2648,7 @@
         <v>60</v>
       </c>
       <c r="I19" s="32" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="20" spans="2:9" ht="36" x14ac:dyDescent="0.4">
@@ -2671,7 +2672,7 @@
         <v>60</v>
       </c>
       <c r="I20" s="32" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.4">
@@ -2695,7 +2696,7 @@
         <v>60</v>
       </c>
       <c r="I21" s="32" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="22" spans="2:9" ht="36" x14ac:dyDescent="0.4">
@@ -2745,7 +2746,7 @@
         <v>68</v>
       </c>
       <c r="I23" s="32" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="24" spans="2:9" ht="37.5" x14ac:dyDescent="0.4">
@@ -2793,7 +2794,7 @@
         <v>78</v>
       </c>
       <c r="I25" s="32" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.4">
@@ -2843,7 +2844,7 @@
         <v>60</v>
       </c>
       <c r="I27" s="32" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="28" spans="2:9" ht="37.5" x14ac:dyDescent="0.4">
@@ -2867,7 +2868,7 @@
         <v>60</v>
       </c>
       <c r="I28" s="32" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="29" spans="2:9" ht="168.75" x14ac:dyDescent="0.4">
@@ -2891,7 +2892,7 @@
         <v>60</v>
       </c>
       <c r="I29" s="32" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.4">
@@ -2917,7 +2918,7 @@
         <v>82</v>
       </c>
       <c r="I30" s="32" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.4">
@@ -2941,7 +2942,7 @@
         <v>60</v>
       </c>
       <c r="I31" s="32" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.4">
@@ -2965,7 +2966,7 @@
         <v>60</v>
       </c>
       <c r="I32" s="32" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.4">
@@ -2989,7 +2990,7 @@
         <v>60</v>
       </c>
       <c r="I33" s="32" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.4">
@@ -3015,7 +3016,7 @@
         <v>82</v>
       </c>
       <c r="I34" s="32" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.4">
@@ -3039,7 +3040,7 @@
         <v>60</v>
       </c>
       <c r="I35" s="32" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="36" spans="2:9" ht="37.5" x14ac:dyDescent="0.4">
@@ -3063,7 +3064,7 @@
         <v>60</v>
       </c>
       <c r="I36" s="32" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="37" spans="2:9" ht="93.75" x14ac:dyDescent="0.4">
@@ -3087,7 +3088,7 @@
         <v>60</v>
       </c>
       <c r="I37" s="32" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="38" spans="2:9" ht="36" x14ac:dyDescent="0.4">
@@ -3137,7 +3138,7 @@
         <v>60</v>
       </c>
       <c r="I39" s="32" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="40" spans="2:9" ht="37.5" x14ac:dyDescent="0.4">
@@ -3161,7 +3162,7 @@
         <v>60</v>
       </c>
       <c r="I40" s="32" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="41" spans="2:9" ht="225" x14ac:dyDescent="0.4">
@@ -3185,7 +3186,7 @@
         <v>60</v>
       </c>
       <c r="I41" s="32" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="42" spans="2:9" ht="36" x14ac:dyDescent="0.4">
@@ -3235,7 +3236,7 @@
         <v>60</v>
       </c>
       <c r="I43" s="32" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="44" spans="2:9" ht="187.5" x14ac:dyDescent="0.4">
@@ -3259,7 +3260,7 @@
         <v>60</v>
       </c>
       <c r="I44" s="32" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="45" spans="2:9" ht="56.25" x14ac:dyDescent="0.4">
@@ -3285,7 +3286,7 @@
         <v>115</v>
       </c>
       <c r="I45" s="32" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="46" spans="2:9" ht="54" x14ac:dyDescent="0.4">
@@ -3333,7 +3334,7 @@
         <v>60</v>
       </c>
       <c r="I47" s="32" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="48" spans="2:9" ht="36" x14ac:dyDescent="0.4">
@@ -3357,13 +3358,13 @@
         <v>60</v>
       </c>
       <c r="I48" s="32" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B49" s="12"/>
       <c r="C49" s="9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D49" s="20" t="s">
         <v>122</v>
@@ -3381,7 +3382,7 @@
         <v>123</v>
       </c>
       <c r="I49" s="32" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="50" spans="2:9" ht="37.5" x14ac:dyDescent="0.4">
@@ -3405,7 +3406,7 @@
         <v>126</v>
       </c>
       <c r="I50" s="32" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="51" spans="2:9" ht="56.25" x14ac:dyDescent="0.4">
@@ -3429,7 +3430,7 @@
         <v>131</v>
       </c>
       <c r="I51" s="32" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="52" spans="2:9" ht="158.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -3453,7 +3454,7 @@
         <v>41</v>
       </c>
       <c r="I52" s="32" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="53" spans="2:9" ht="37.5" x14ac:dyDescent="0.4">
@@ -3479,7 +3480,7 @@
         <v>142</v>
       </c>
       <c r="I53" s="32" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.4">
@@ -3503,7 +3504,7 @@
         <v>147</v>
       </c>
       <c r="I54" s="32" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="55" spans="2:9" ht="300" x14ac:dyDescent="0.4">
@@ -3527,7 +3528,7 @@
         <v>153</v>
       </c>
       <c r="I55" s="32" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="56" spans="2:9" ht="378.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -3673,7 +3674,7 @@
         <v>41</v>
       </c>
       <c r="I61" s="32" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="62" spans="2:9" ht="281.25" x14ac:dyDescent="0.4">
@@ -3747,7 +3748,7 @@
         <v>184</v>
       </c>
       <c r="I64" s="32" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="65" spans="2:9" ht="36" x14ac:dyDescent="0.4">
@@ -3806,22 +3807,22 @@
         <v>190</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E67" s="11" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F67" s="11" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G67" s="11" t="s">
         <v>191</v>
       </c>
       <c r="H67" s="11" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I67" s="32" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="68" spans="2:9" ht="75" x14ac:dyDescent="0.4">
@@ -3830,22 +3831,22 @@
         <v>192</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E68" s="11" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F68" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G68" s="11" t="s">
         <v>193</v>
       </c>
       <c r="H68" s="11" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I68" s="32" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="69" spans="2:9" ht="38.25" thickBot="1" x14ac:dyDescent="0.45">
@@ -3869,7 +3870,7 @@
         <v>199</v>
       </c>
       <c r="I69" s="33" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -3894,28 +3895,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="95a18445-f875-4685-a8fc-5534d722d914">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="ed9888db-c08f-4880-8c8f-9300fabbe8b3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101003C08ACAE43F5CD40BD49563E4167DBA5" ma:contentTypeVersion="13" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="e5cf3576106fad77928c8c9c928fc992">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="95a18445-f875-4685-a8fc-5534d722d914" xmlns:ns3="ed9888db-c08f-4880-8c8f-9300fabbe8b3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="be27332847f8f1576104ee7bbefcdd2c" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101003C08ACAE43F5CD40BD49563E4167DBA5" ma:contentTypeVersion="13" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="60858ab39c1936b57ba7526317a34bc4">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="95a18445-f875-4685-a8fc-5534d722d914" xmlns:ns3="ed9888db-c08f-4880-8c8f-9300fabbe8b3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5461a1a3eb937e2b8ffa83d4da93e066" ns2:_="" ns3:_="">
     <xsd:import namespace="95a18445-f875-4685-a8fc-5534d722d914"/>
     <xsd:import namespace="ed9888db-c08f-4880-8c8f-9300fabbe8b3"/>
     <xsd:element name="properties">
@@ -4120,46 +4101,51 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="95a18445-f875-4685-a8fc-5534d722d914">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="ed9888db-c08f-4880-8c8f-9300fabbe8b3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DCD79325-5DD5-4BBB-9530-C535662FD937}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCA79465-14D2-4134-A043-DC6C812341BB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="95a18445-f875-4685-a8fc-5534d722d914"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="ed9888db-c08f-4880-8c8f-9300fabbe8b3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F12E7D3-2895-4109-9EC4-10427F150BCD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCA79465-14D2-4134-A043-DC6C812341BB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="ed9888db-c08f-4880-8c8f-9300fabbe8b3"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="95a18445-f875-4685-a8fc-5534d722d914"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F0740624-C869-455C-9855-833982304970}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="95a18445-f875-4685-a8fc-5534d722d914"/>
-    <ds:schemaRef ds:uri="ed9888db-c08f-4880-8c8f-9300fabbe8b3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>